--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cd74.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H2">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N2">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O2">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P2">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q2">
-        <v>1819.472365945431</v>
+        <v>25.72628182919134</v>
       </c>
       <c r="R2">
-        <v>16375.25129350888</v>
+        <v>231.536536462722</v>
       </c>
       <c r="S2">
-        <v>0.007156686254318014</v>
+        <v>0.0001072378890077514</v>
       </c>
       <c r="T2">
-        <v>0.007156686254318014</v>
+        <v>0.0001072378890077514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H3">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O3">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P3">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q3">
-        <v>42.68535749938044</v>
+        <v>35.03901314401867</v>
       </c>
       <c r="R3">
-        <v>384.168217494424</v>
+        <v>315.351118296168</v>
       </c>
       <c r="S3">
-        <v>0.0001678979670118432</v>
+        <v>0.0001460572432280443</v>
       </c>
       <c r="T3">
-        <v>0.0001678979670118432</v>
+        <v>0.0001460572432280443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H4">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I4">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J4">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N4">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O4">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P4">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q4">
-        <v>7.817905720868223</v>
+        <v>12.854388805289</v>
       </c>
       <c r="R4">
-        <v>70.361151487814</v>
+        <v>115.689499247601</v>
       </c>
       <c r="S4">
-        <v>3.075083714229371E-05</v>
+        <v>5.358246205636758E-05</v>
       </c>
       <c r="T4">
-        <v>3.075083714229371E-05</v>
+        <v>5.358246205636758E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H5">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I5">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J5">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N5">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O5">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P5">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q5">
-        <v>31059.88303505631</v>
+        <v>32087.04698815036</v>
       </c>
       <c r="R5">
-        <v>279538.9473155069</v>
+        <v>288783.4228933532</v>
       </c>
       <c r="S5">
-        <v>0.1221704941158636</v>
+        <v>0.1337522151995305</v>
       </c>
       <c r="T5">
-        <v>0.1221704941158637</v>
+        <v>0.1337522151995305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>53.097706</v>
       </c>
       <c r="I6">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J6">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N6">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O6">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P6">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q6">
-        <v>2496.839370417254</v>
+        <v>43.00799730944845</v>
       </c>
       <c r="R6">
-        <v>22471.55433375529</v>
+        <v>387.071975785036</v>
       </c>
       <c r="S6">
-        <v>0.009821031819969465</v>
+        <v>0.0001792752980216137</v>
       </c>
       <c r="T6">
-        <v>0.009821031819969465</v>
+        <v>0.0001792752980216137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>53.097706</v>
       </c>
       <c r="I7">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J7">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O7">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P7">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q7">
         <v>58.57658689386489</v>
@@ -883,10 +883,10 @@
         <v>527.189282044784</v>
       </c>
       <c r="S7">
-        <v>0.0002304042985727657</v>
+        <v>0.0002441716826972442</v>
       </c>
       <c r="T7">
-        <v>0.0002304042985727657</v>
+        <v>0.0002441716826972442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>53.097706</v>
       </c>
       <c r="I8">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J8">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N8">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O8">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P8">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q8">
-        <v>10.72841509628044</v>
+        <v>21.48936728684867</v>
       </c>
       <c r="R8">
-        <v>96.555735866524</v>
+        <v>193.404305581638</v>
       </c>
       <c r="S8">
-        <v>4.219899256907476E-05</v>
+        <v>8.957665935770859E-05</v>
       </c>
       <c r="T8">
-        <v>4.219899256907476E-05</v>
+        <v>8.957665935770859E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>53.097706</v>
       </c>
       <c r="I9">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J9">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N9">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O9">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P9">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q9">
-        <v>42623.09241623813</v>
+        <v>53641.62764355032</v>
       </c>
       <c r="R9">
-        <v>383607.8317461432</v>
+        <v>482774.6487919529</v>
       </c>
       <c r="S9">
-        <v>0.1676530544355442</v>
+        <v>0.223600711118191</v>
       </c>
       <c r="T9">
-        <v>0.1676530544355442</v>
+        <v>0.223600711118191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H10">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I10">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J10">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N10">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O10">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P10">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q10">
-        <v>5474.881996166114</v>
+        <v>83.15989236693289</v>
       </c>
       <c r="R10">
-        <v>49273.93796549502</v>
+        <v>748.4390313023961</v>
       </c>
       <c r="S10">
-        <v>0.02153482155559724</v>
+        <v>0.0003466451688103123</v>
       </c>
       <c r="T10">
-        <v>0.02153482155559724</v>
+        <v>0.0003466451688103123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H11">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I11">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J11">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O11">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P11">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q11">
-        <v>128.4423438615067</v>
+        <v>113.2631828045138</v>
       </c>
       <c r="R11">
-        <v>1155.98109475356</v>
+        <v>1019.368645240624</v>
       </c>
       <c r="S11">
-        <v>0.0005052132552221468</v>
+        <v>0.000472128258055272</v>
       </c>
       <c r="T11">
-        <v>0.0005052132552221468</v>
+        <v>0.000472128258055272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H12">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I12">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J12">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N12">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O12">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P12">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q12">
-        <v>23.52446350932334</v>
+        <v>41.55165509683533</v>
       </c>
       <c r="R12">
-        <v>211.72017158391</v>
+        <v>373.964895871518</v>
       </c>
       <c r="S12">
-        <v>9.253078408250434E-05</v>
+        <v>0.0001732046553383676</v>
       </c>
       <c r="T12">
-        <v>9.253078408250434E-05</v>
+        <v>0.0001732046553383676</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H13">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I13">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J13">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N13">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O13">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P13">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q13">
-        <v>93460.71840079552</v>
+        <v>103720.9881950196</v>
       </c>
       <c r="R13">
-        <v>841146.4656071597</v>
+        <v>933488.8937551765</v>
       </c>
       <c r="S13">
-        <v>0.3676170362445176</v>
+        <v>0.432352404971746</v>
       </c>
       <c r="T13">
-        <v>0.3676170362445177</v>
+        <v>0.432352404971746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H14">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I14">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J14">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.0704656666667</v>
+        <v>2.429935333333333</v>
       </c>
       <c r="N14">
-        <v>423.2113970000001</v>
+        <v>7.289806</v>
       </c>
       <c r="O14">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="P14">
-        <v>0.05525296614535039</v>
+        <v>0.0007999299918632063</v>
       </c>
       <c r="Q14">
-        <v>4255.984174331038</v>
+        <v>40.00837902680556</v>
       </c>
       <c r="R14">
-        <v>38303.85756897934</v>
+        <v>360.07541124125</v>
       </c>
       <c r="S14">
-        <v>0.01674042651546566</v>
+        <v>0.0001667716360235289</v>
       </c>
       <c r="T14">
-        <v>0.01674042651546566</v>
+        <v>0.0001667716360235289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H15">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I15">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J15">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.928663999999999</v>
       </c>
       <c r="O15">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="P15">
-        <v>0.001296250856544298</v>
+        <v>0.001089498967837074</v>
       </c>
       <c r="Q15">
-        <v>99.84664202285244</v>
+        <v>54.49112809611111</v>
       </c>
       <c r="R15">
-        <v>898.6197782056719</v>
+        <v>490.4201528649999</v>
       </c>
       <c r="S15">
-        <v>0.0003927353357375423</v>
+        <v>0.0002271417838565133</v>
       </c>
       <c r="T15">
-        <v>0.0003927353357375423</v>
+        <v>0.0002271417838565133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H16">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I16">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J16">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6061513333333334</v>
+        <v>1.214141</v>
       </c>
       <c r="N16">
-        <v>1.818454</v>
+        <v>3.642423</v>
       </c>
       <c r="O16">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="P16">
-        <v>0.0002374108495449544</v>
+        <v>0.0003996928588706414</v>
       </c>
       <c r="Q16">
-        <v>18.28710545276022</v>
+        <v>19.99057861895833</v>
       </c>
       <c r="R16">
-        <v>164.583949074842</v>
+        <v>179.915207570625</v>
       </c>
       <c r="S16">
-        <v>7.19302357510816E-05</v>
+        <v>8.332908211819767E-05</v>
       </c>
       <c r="T16">
-        <v>7.193023575108159E-05</v>
+        <v>8.332908211819767E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H17">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I17">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J17">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2408.188354666667</v>
+        <v>3030.731364</v>
       </c>
       <c r="N17">
-        <v>7224.565064</v>
+        <v>9092.194092</v>
       </c>
       <c r="O17">
-        <v>0.9432133721485603</v>
+        <v>0.9977108781814291</v>
       </c>
       <c r="P17">
-        <v>0.9432133721485604</v>
+        <v>0.9977108781814292</v>
       </c>
       <c r="Q17">
-        <v>72653.13457238699</v>
+        <v>49900.36050589249</v>
       </c>
       <c r="R17">
-        <v>653878.2111514829</v>
+        <v>449103.2445530324</v>
       </c>
       <c r="S17">
-        <v>0.2857727873526347</v>
+        <v>0.2080055468919617</v>
       </c>
       <c r="T17">
-        <v>0.2857727873526347</v>
+        <v>0.2080055468919617</v>
       </c>
     </row>
   </sheetData>
